--- a/ConfigurationFiles/2-Score_weight_DG.xlsx
+++ b/ConfigurationFiles/2-Score_weight_DG.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12651"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
     <t>FA2_[FA-H2O+H]+</t>
   </si>
   <si>
-    <t>[MG(FA1)-H2O+H]+</t>
-  </si>
-  <si>
-    <t>[MG(FA2)-H2O+H]+</t>
+    <t>FA1_[MG-H2O+H]+</t>
+  </si>
+  <si>
+    <t>FA2_[MG-H2O+H]+</t>
   </si>
 </sst>
 </file>
@@ -397,12 +397,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="19.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -424,7 +424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -435,7 +435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
